--- a/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Nodes_Evaluation_WB311.xlsx
+++ b/notebooks/folding/geometry/TRR_demonstrator/WBScanCell_Nodes_Evaluation_WB311.xlsx
@@ -509,28 +509,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0.0003960461763199419</v>
       </c>
       <c r="F2" t="n">
-        <v>71.6439208984375</v>
+        <v>71.64391326904297</v>
       </c>
       <c r="G2" t="n">
-        <v>7.450580596923828e-09</v>
+        <v>-4.470348358154297e-08</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1439208984375</v>
+        <v>0.1439132690429688</v>
       </c>
       <c r="J2" t="n">
-        <v>7.450580596923828e-09</v>
+        <v>-4.470348358154297e-08</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.0003960461763199419</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1439208984375002</v>
+        <v>0.1439138139971618</v>
       </c>
     </row>
     <row r="3">
@@ -547,28 +547,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0.0003960461763199419</v>
       </c>
       <c r="F3" t="n">
-        <v>-71.6439208984375</v>
+        <v>-71.64391326904297</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.450580596923828e-09</v>
+        <v>3.725290298461914e-08</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-1.192092895507812e-07</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.1439208984375</v>
+        <v>-0.1439132690429688</v>
       </c>
       <c r="J3" t="n">
-        <v>-7.450580596923828e-09</v>
+        <v>3.725290298461914e-08</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.0003959269670303911</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1439208984375002</v>
+        <v>0.1439138136691489</v>
       </c>
     </row>
     <row r="4">
@@ -585,13 +585,13 @@
         <v>385.849365234375</v>
       </c>
       <c r="E4" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F4" t="n">
         <v>319.708251953125</v>
       </c>
       <c r="G4" t="n">
-        <v>394.0815734863281</v>
+        <v>394.0816650390625</v>
       </c>
       <c r="H4" t="n">
         <v>116.9625091552734</v>
@@ -600,13 +600,13 @@
         <v>-1.791748046875</v>
       </c>
       <c r="J4" t="n">
-        <v>8.232208251953125</v>
+        <v>8.2322998046875</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.926162719726562</v>
+        <v>-1.925765991210938</v>
       </c>
       <c r="L4" t="n">
-        <v>8.642321250096524</v>
+        <v>8.642320046760759</v>
       </c>
     </row>
     <row r="5">
@@ -623,28 +623,28 @@
         <v>385.849365234375</v>
       </c>
       <c r="E5" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F5" t="n">
-        <v>-328.3187866210938</v>
+        <v>-328.3188781738281</v>
       </c>
       <c r="G5" t="n">
-        <v>391.3939819335938</v>
+        <v>391.394287109375</v>
       </c>
       <c r="H5" t="n">
-        <v>116.03125</v>
+        <v>116.0313110351562</v>
       </c>
       <c r="I5" t="n">
-        <v>-6.81878662109375</v>
+        <v>-6.818878173828125</v>
       </c>
       <c r="J5" t="n">
-        <v>5.54461669921875</v>
+        <v>5.544921875</v>
       </c>
       <c r="K5" t="n">
-        <v>-2.857421875</v>
+        <v>-2.856964111328125</v>
       </c>
       <c r="L5" t="n">
-        <v>9.241400602559715</v>
+        <v>9.241509729626431</v>
       </c>
     </row>
     <row r="6">
@@ -661,28 +661,28 @@
         <v>-385.849365234375</v>
       </c>
       <c r="E6" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F6" t="n">
-        <v>328.8450317382812</v>
+        <v>328.8450012207031</v>
       </c>
       <c r="G6" t="n">
-        <v>-388.3965759277344</v>
+        <v>-388.3965148925781</v>
       </c>
       <c r="H6" t="n">
-        <v>114.7068939208984</v>
+        <v>114.7068786621094</v>
       </c>
       <c r="I6" t="n">
-        <v>7.34503173828125</v>
+        <v>7.345001220703125</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.547210693359375</v>
+        <v>-2.547149658203125</v>
       </c>
       <c r="K6" t="n">
-        <v>-4.181777954101562</v>
+        <v>-4.181396484375</v>
       </c>
       <c r="L6" t="n">
-        <v>8.827516095150044</v>
+        <v>8.827292386284613</v>
       </c>
     </row>
     <row r="7">
@@ -699,28 +699,28 @@
         <v>-385.849365234375</v>
       </c>
       <c r="E7" t="n">
-        <v>118.888671875</v>
+        <v>118.8882751464844</v>
       </c>
       <c r="F7" t="n">
-        <v>-317.7643737792969</v>
+        <v>-317.7643432617188</v>
       </c>
       <c r="G7" t="n">
-        <v>-389.7033996582031</v>
+        <v>-389.7033081054688</v>
       </c>
       <c r="H7" t="n">
-        <v>115.2067642211914</v>
+        <v>115.2067718505859</v>
       </c>
       <c r="I7" t="n">
-        <v>3.735626220703125</v>
+        <v>3.73565673828125</v>
       </c>
       <c r="J7" t="n">
-        <v>-3.854034423828125</v>
+        <v>-3.85394287109375</v>
       </c>
       <c r="K7" t="n">
-        <v>-3.681907653808594</v>
+        <v>-3.681503295898438</v>
       </c>
       <c r="L7" t="n">
-        <v>6.508834655453402</v>
+        <v>6.508569231223672</v>
       </c>
     </row>
     <row r="8">
@@ -737,28 +737,28 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F8" t="n">
         <v>175.4961395263672</v>
       </c>
       <c r="G8" t="n">
-        <v>1.877208709716797</v>
+        <v>1.877199172973633</v>
       </c>
       <c r="H8" t="n">
-        <v>121.8229217529297</v>
+        <v>121.8229141235352</v>
       </c>
       <c r="I8" t="n">
         <v>2.227569580078125</v>
       </c>
       <c r="J8" t="n">
-        <v>1.877208709716797</v>
+        <v>1.877199172973633</v>
       </c>
       <c r="K8" t="n">
-        <v>-3.256179809570312</v>
+        <v>-3.255790710449219</v>
       </c>
       <c r="L8" t="n">
-        <v>4.369060050649269</v>
+        <v>4.368765972142449</v>
       </c>
     </row>
     <row r="9">
@@ -775,28 +775,28 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F9" t="n">
-        <v>-177.1546478271484</v>
+        <v>-177.1546325683594</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.132644653320312</v>
+        <v>-1.132626533508301</v>
       </c>
       <c r="H9" t="n">
         <v>122.4480819702148</v>
       </c>
       <c r="I9" t="n">
-        <v>-3.886077880859375</v>
+        <v>-3.886062622070312</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.132644653320312</v>
+        <v>-1.132626533508301</v>
       </c>
       <c r="K9" t="n">
-        <v>-2.631019592285156</v>
+        <v>-2.630622863769531</v>
       </c>
       <c r="L9" t="n">
-        <v>4.827706422493804</v>
+        <v>4.827473689047516</v>
       </c>
     </row>
     <row r="10">
@@ -813,28 +813,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E10" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F10" t="n">
-        <v>-431.0640400778645</v>
+        <v>-431.0640430772268</v>
       </c>
       <c r="G10" t="n">
-        <v>384.1619792034061</v>
+        <v>384.1620574407201</v>
       </c>
       <c r="H10" t="n">
-        <v>-7.180979200430443</v>
+        <v>-7.180988569464773</v>
       </c>
       <c r="I10" t="n">
-        <v>-7.795470984012525</v>
+        <v>-7.795473983374734</v>
       </c>
       <c r="J10" t="n">
-        <v>2.325370316687327</v>
+        <v>2.325448554001355</v>
       </c>
       <c r="K10" t="n">
-        <v>-1.055002637930443</v>
+        <v>-1.054615755286306</v>
       </c>
       <c r="L10" t="n">
-        <v>8.203032703723173</v>
+        <v>8.203007984518694</v>
       </c>
     </row>
     <row r="11">
@@ -851,28 +851,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F11" t="n">
-        <v>-503.8510025679171</v>
+        <v>-503.8510173463313</v>
       </c>
       <c r="G11" t="n">
-        <v>384.1619792034061</v>
+        <v>384.1620574407201</v>
       </c>
       <c r="H11" t="n">
-        <v>-7.180979200430443</v>
+        <v>-7.180988569464773</v>
       </c>
       <c r="I11" t="n">
-        <v>-9.082433474065169</v>
+        <v>-9.08244825247931</v>
       </c>
       <c r="J11" t="n">
-        <v>2.325370316687327</v>
+        <v>2.325448554001355</v>
       </c>
       <c r="K11" t="n">
-        <v>-1.055002637930443</v>
+        <v>-1.054615755286306</v>
       </c>
       <c r="L11" t="n">
-        <v>9.434562813749782</v>
+        <v>9.434553069836937</v>
       </c>
     </row>
     <row r="12">
@@ -889,28 +889,28 @@
         <v>-7.62939453125e-06</v>
       </c>
       <c r="E12" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F12" t="n">
-        <v>-503.8510025679171</v>
+        <v>-503.8510173463313</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.921474771996143</v>
+        <v>-1.921457457338567</v>
       </c>
       <c r="H12" t="n">
-        <v>121.0626601022876</v>
+        <v>121.0626772711425</v>
       </c>
       <c r="I12" t="n">
-        <v>-9.082448306635683</v>
+        <v>-9.082463085049824</v>
       </c>
       <c r="J12" t="n">
-        <v>-1.921467142601612</v>
+        <v>-1.921449827944035</v>
       </c>
       <c r="K12" t="n">
-        <v>-4.016441460212363</v>
+        <v>-4.016027562841884</v>
       </c>
       <c r="L12" t="n">
-        <v>10.11507316958804</v>
+        <v>10.11491880926904</v>
       </c>
     </row>
     <row r="13">
@@ -927,28 +927,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E13" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F13" t="n">
-        <v>-426.0193915916738</v>
+        <v>-426.0194288919388</v>
       </c>
       <c r="G13" t="n">
-        <v>-390.0376958316629</v>
+        <v>-390.0377156731189</v>
       </c>
       <c r="H13" t="n">
-        <v>-6.178555136511989</v>
+        <v>-6.178564048389262</v>
       </c>
       <c r="I13" t="n">
-        <v>-2.75082249782173</v>
+        <v>-2.750859798086822</v>
       </c>
       <c r="J13" t="n">
-        <v>-8.201086944944109</v>
+        <v>-8.201106786400146</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.05257857401198862</v>
+        <v>-0.0521912342107953</v>
       </c>
       <c r="L13" t="n">
-        <v>8.650295717459606</v>
+        <v>8.650324044542913</v>
       </c>
     </row>
     <row r="14">
@@ -965,28 +965,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F14" t="n">
-        <v>-503.8510025679171</v>
+        <v>-503.8510173463313</v>
       </c>
       <c r="G14" t="n">
-        <v>-390.0376958316629</v>
+        <v>-390.0377156731189</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.178555136511989</v>
+        <v>-6.178564048389262</v>
       </c>
       <c r="I14" t="n">
-        <v>-9.082433474065169</v>
+        <v>-9.08244825247931</v>
       </c>
       <c r="J14" t="n">
-        <v>-8.201086944944109</v>
+        <v>-8.201106786400146</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.05257857401198862</v>
+        <v>-0.0521912342107953</v>
       </c>
       <c r="L14" t="n">
-        <v>12.23728684781873</v>
+        <v>12.23730945534317</v>
       </c>
     </row>
     <row r="15">
@@ -1003,28 +1003,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E15" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F15" t="n">
-        <v>502.0972635356696</v>
+        <v>502.0972939341241</v>
       </c>
       <c r="G15" t="n">
-        <v>392.6730257598388</v>
+        <v>392.6730547882676</v>
       </c>
       <c r="H15" t="n">
-        <v>-10.44463069232069</v>
+        <v>-10.44466239838772</v>
       </c>
       <c r="I15" t="n">
-        <v>7.328694441817674</v>
+        <v>7.328724840272173</v>
       </c>
       <c r="J15" t="n">
-        <v>10.83641687312007</v>
+        <v>10.83644590154887</v>
       </c>
       <c r="K15" t="n">
-        <v>-4.318654129820686</v>
+        <v>-4.318289584209253</v>
       </c>
       <c r="L15" t="n">
-        <v>13.77637348370709</v>
+        <v>13.77629821449535</v>
       </c>
     </row>
     <row r="16">
@@ -1041,28 +1041,28 @@
         <v>381.8366088867188</v>
       </c>
       <c r="E16" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F16" t="n">
-        <v>419.441928170374</v>
+        <v>419.441972831314</v>
       </c>
       <c r="G16" t="n">
-        <v>392.6730257598388</v>
+        <v>392.6730547882676</v>
       </c>
       <c r="H16" t="n">
-        <v>-10.44463069232069</v>
+        <v>-10.44466239838772</v>
       </c>
       <c r="I16" t="n">
-        <v>-3.826640923478067</v>
+        <v>-3.826596262537976</v>
       </c>
       <c r="J16" t="n">
-        <v>10.83641687312007</v>
+        <v>10.83644590154887</v>
       </c>
       <c r="K16" t="n">
-        <v>-4.318654129820686</v>
+        <v>-4.318289584209253</v>
       </c>
       <c r="L16" t="n">
-        <v>12.27688416896957</v>
+        <v>12.27676763919376</v>
       </c>
     </row>
     <row r="17">
@@ -1079,28 +1079,28 @@
         <v>-7.62939453125e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>125.0791015625</v>
+        <v>125.0787048339844</v>
       </c>
       <c r="F17" t="n">
-        <v>502.0972635356696</v>
+        <v>502.0972939341241</v>
       </c>
       <c r="G17" t="n">
-        <v>9.550853534460447</v>
+        <v>9.550821580280385</v>
       </c>
       <c r="H17" t="n">
-        <v>118.5462595347927</v>
+        <v>118.5462349611945</v>
       </c>
       <c r="I17" t="n">
-        <v>7.328709274388189</v>
+        <v>7.328739672842687</v>
       </c>
       <c r="J17" t="n">
-        <v>9.550861163854979</v>
+        <v>9.550829209674916</v>
       </c>
       <c r="K17" t="n">
-        <v>-6.532842027707332</v>
+        <v>-6.532469872789875</v>
       </c>
       <c r="L17" t="n">
-        <v>13.69696877264149</v>
+        <v>13.6967852587235</v>
       </c>
     </row>
     <row r="18">
@@ -1117,28 +1117,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E18" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F18" t="n">
-        <v>502.0972635356696</v>
+        <v>502.0972939341241</v>
       </c>
       <c r="G18" t="n">
-        <v>-379.8565735515457</v>
+        <v>-379.8566428835929</v>
       </c>
       <c r="H18" t="n">
-        <v>-6.303123228218681</v>
+        <v>-6.303154396674159</v>
       </c>
       <c r="I18" t="n">
-        <v>7.328694441817674</v>
+        <v>7.328724840272173</v>
       </c>
       <c r="J18" t="n">
-        <v>1.980035335173056</v>
+        <v>1.979966003125867</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.1771466657186807</v>
+        <v>-0.1767815824956926</v>
       </c>
       <c r="L18" t="n">
-        <v>7.593529027483756</v>
+        <v>7.593531779472994</v>
       </c>
     </row>
     <row r="19">
@@ -1155,28 +1155,28 @@
         <v>-381.8366088867188</v>
       </c>
       <c r="E19" t="n">
-        <v>-6.1259765625</v>
+        <v>-6.126372814178467</v>
       </c>
       <c r="F19" t="n">
-        <v>435.4743910687214</v>
+        <v>435.4744029775859</v>
       </c>
       <c r="G19" t="n">
-        <v>-379.8565735515457</v>
+        <v>-379.8566428835929</v>
       </c>
       <c r="H19" t="n">
-        <v>-6.303123228218681</v>
+        <v>-6.303154396674159</v>
       </c>
       <c r="I19" t="n">
-        <v>12.20582197486937</v>
+        <v>12.20583388373387</v>
       </c>
       <c r="J19" t="n">
-        <v>1.980035335173056</v>
+        <v>1.979966003125867</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.1771466657186807</v>
+        <v>-0.1767815824956926</v>
       </c>
       <c r="L19" t="n">
-        <v>12.36664914000203</v>
+        <v>12.3666445691121</v>
       </c>
     </row>
   </sheetData>
